--- a/projects/test_building/input/Parameter_Building_SupplyTemperature.xlsx
+++ b/projects/test_building/input/Parameter_Building_SupplyTemperature.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28829827-57E1-D04F-9753-EB80501744A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09836C-6457-9542-BDF5-BCC1A43EE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,13 +368,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -401,9 +401,6 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -415,9 +412,6 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -427,9 +421,6 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
         <v>3</v>
       </c>
     </row>
@@ -443,9 +434,6 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -457,9 +445,6 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -471,9 +456,6 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -485,9 +467,6 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -499,9 +478,6 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -513,9 +489,6 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -526,9 +499,6 @@
       </c>
       <c r="C11" t="s">
         <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,9 +511,6 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -555,9 +522,6 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -569,9 +533,6 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -582,9 +543,6 @@
       </c>
       <c r="C15" t="s">
         <v>3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/Parameter_Building_SupplyTemperature.xlsx
+++ b/projects/test_building/input/Parameter_Building_SupplyTemperature.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09836C-6457-9542-BDF5-BCC1A43EE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t>unit</t>
   </si>
@@ -34,13 +33,16 @@
     <t>degree</t>
   </si>
   <si>
-    <t>value</t>
+    <t>space_heating</t>
+  </si>
+  <si>
+    <t>hot_water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,13 +92,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0">
-  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="id_building_efficiency_class"/>
-    <tableColumn id="1" xr3:uid="{0AEE765B-CE26-7B49-848F-0FC464E75AA7}" name="id_radiator"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="value"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15"/>
+  <tableColumns count="5">
+    <tableColumn id="7" name="id_building_efficiency_class"/>
+    <tableColumn id="1" name="id_radiator"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="6" name="space_heating"/>
+    <tableColumn id="2" name="hot_water"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -364,20 +367,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -390,8 +395,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,8 +409,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -412,8 +426,14 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -423,8 +443,14 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -434,8 +460,14 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -445,8 +477,14 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -456,8 +494,14 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -467,8 +511,14 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -478,8 +528,14 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -489,8 +545,14 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -500,8 +562,14 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -511,8 +579,14 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -522,8 +596,14 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -533,8 +613,14 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -543,6 +629,12 @@
       </c>
       <c r="C15" t="s">
         <v>3</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/Parameter_Building_SupplyTemperature.xlsx
+++ b/projects/test_building/input/Parameter_Building_SupplyTemperature.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>unit</t>
   </si>
@@ -92,8 +92,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19"/>
   <tableColumns count="5">
     <tableColumn id="7" name="id_building_efficiency_class"/>
     <tableColumn id="1" name="id_radiator"/>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,16 +520,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -537,16 +537,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -622,18 +622,86 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>35</v>
-      </c>
-      <c r="E15">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
         <v>60</v>
       </c>
     </row>
